--- a/data/trans_camb/P14B23-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P14B23-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 0,87</t>
+          <t>-2,3; 0,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,45</t>
+          <t>-1,01; 2,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,04</t>
+          <t>-2,28; 3,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 5,32</t>
+          <t>0,17; 5,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,36</t>
+          <t>-1,64; 1,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 3,26</t>
+          <t>0,05; 3,26</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-90,88; 180,89</t>
+          <t>-90,22; 176,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-57,87; 426,61</t>
+          <t>-60,68; 450,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-67,3; 294,42</t>
+          <t>-66,71; 314,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 644,3</t>
+          <t>-8,91; 609,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,51; 139,43</t>
+          <t>-61,38; 152,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 305,69</t>
+          <t>-2,4; 337,11</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,2</t>
+          <t>-2,86; 1,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 2,52</t>
+          <t>-1,48; 2,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,59</t>
+          <t>-3,43; 1,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,77</t>
+          <t>0,68; 6,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 0,93</t>
+          <t>-2,33; 0,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 4,05</t>
+          <t>0,32; 4,03</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-87,38; 171,94</t>
+          <t>-87,71; 130,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,82; 276,69</t>
+          <t>-51,39; 256,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,26; 112,45</t>
+          <t>-75,56; 98,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 360,27</t>
+          <t>9,82; 368,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,5; 57,47</t>
+          <t>-68,21; 51,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 229,62</t>
+          <t>6,39; 235,14</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; -1,02</t>
+          <t>-4,98; -1,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,21</t>
+          <t>-4,25; 1,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 7,98</t>
+          <t>-4,98; 6,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 6,92</t>
+          <t>-3,72; 6,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -0,06</t>
+          <t>-4,33; 0,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 1,9</t>
+          <t>-4,5; 2,2</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-87,9; -26,23</t>
+          <t>-87,24; -25,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,59; 57,26</t>
+          <t>-78,22; 47,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,5; 123,37</t>
+          <t>-47,65; 102,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 109,68</t>
+          <t>-35,73; 101,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,03; 1,92</t>
+          <t>-65,65; 2,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,07; 36,77</t>
+          <t>-65,43; 42,95</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,13</t>
+          <t>-1,66; 1,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,04</t>
+          <t>-0,12; 3,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,64</t>
+          <t>-4,15; 0,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 1,63</t>
+          <t>-5,44; 1,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 0,48</t>
+          <t>-2,12; 0,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,0</t>
+          <t>-1,14; 2,0</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,42; 49,91</t>
+          <t>-46,6; 56,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 128,91</t>
+          <t>-4,94; 146,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,0; 14,17</t>
+          <t>-50,94; 15,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-61,45; 25,78</t>
+          <t>-64,51; 29,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 13,32</t>
+          <t>-41,8; 14,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 52,25</t>
+          <t>-21,9; 51,11</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,1</t>
+          <t>-0,31; 3,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,37</t>
+          <t>1,03; 5,36</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 1,78</t>
+          <t>-4,88; 1,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 0,87</t>
+          <t>-5,63; 0,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 1,23</t>
+          <t>-2,83; 1,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,1</t>
+          <t>-1,97; 2,1</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 351,31</t>
+          <t>-20,43; 347,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>33,08; 643,81</t>
+          <t>33,65; 573,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-36,98; 18,04</t>
+          <t>-38,71; 17,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 7,55</t>
+          <t>-44,43; 8,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 19,56</t>
+          <t>-32,84; 21,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 33,08</t>
+          <t>-23,28; 32,58</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,41</t>
+          <t>0,0; 1,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,96</t>
+          <t>1,85; 10,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,24</t>
+          <t>-3,57; 1,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 0,97</t>
+          <t>-4,23; 1,02</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,85</t>
+          <t>-2,79; 0,97</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,78</t>
+          <t>-2,63; 1,5</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-34,38; 15,25</t>
+          <t>-33,06; 16,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-36,53; 13,04</t>
+          <t>-37,32; 13,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,02; 11,88</t>
+          <t>-32,93; 14,49</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 25,84</t>
+          <t>-30,44; 22,59</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,2</t>
+          <t>-1,23; 0,24</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,07</t>
+          <t>-0,0; 2,08</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 0,03</t>
+          <t>-2,57; -0,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,55</t>
+          <t>-2,33; 0,53</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,64; -0,18</t>
+          <t>-1,62; -0,18</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,98</t>
+          <t>-0,67; 1,11</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 10,9</t>
+          <t>-43,47; 12,7</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>7,02; 97,73</t>
+          <t>0,12; 96,78</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 0,29</t>
+          <t>-30,43; -0,21</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 7,4</t>
+          <t>-27,07; 6,76</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-28,56; -3,15</t>
+          <t>-28,33; -3,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 19,77</t>
+          <t>-11,96; 22,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14B23-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P14B23-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
